--- a/output/plannet-PlanNet-HealthcareService.xlsx
+++ b/output/plannet-PlanNet-HealthcareService.xlsx
@@ -143,7 +143,7 @@
     <t>plannet-PlanNet-HealthcareService</t>
   </si>
   <si>
-    <t>PlanNet-HealthCareService</t>
+    <t>The PlanNet-HealthCareService  resource typically describes services offered by an organization/practitioner at a location. The resource may be used to encompass a variety of services covering the entire healthcare spectrum, including promotion, prevention, diagnstics, hospital and ambulatory care, home care, long-term care, and other health-related and community services.</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
@@ -330,7 +330,7 @@
 </t>
   </si>
   <si>
-    <t>AvailableTime</t>
+    <t>AvailableTime indicates when an organization is available for contact</t>
   </si>
   <si>
     <t>newpatients</t>
@@ -340,7 +340,7 @@
 </t>
   </si>
   <si>
-    <t>New Patients</t>
+    <t>New Patients indicates whether the practitioner is accepting new patients in their role</t>
   </si>
   <si>
     <t>HealthcareService.modifierExtension</t>
